--- a/data/市场数据/D- 房地产开发指标.xlsx
+++ b/data/市场数据/D- 房地产开发指标.xlsx
@@ -1,31 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_yyang\bg-steel-price-trend-forecast\data\市场数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8748B7-4A29-450F-BA8A-F60D6B9DFCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17830" windowHeight="10330"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>eJzNlUFrE0EUx+/9FMtAgx5sZrdps5FMCjYWC7YXL97CZHcSB2dm4+6sSfw4pReLHlRiCIZGLJRajIYeqlC8+iECgm832SYVAwlFcSHkzZv3dt7v/Zc3W54vQ0EJufewtL21vVss3S3euYFvpjY9KZnSJL/RkMJ4yvyAe4ogcwUjgynHc7mqElQtP0YbhTxzy8pzWWHJgCcfmYbjhUr7TYLOB50hMlyqaeCFvsMI6gy7Z/033ePD89jPyqzKo1fncmvYsuyRkymXIAtbGWyvmuBiDpdUgAtsHtQEbXII2MHYXLdw1spAVQ2HiQrwUE0QXsG4ZCCj4rMnIdQLhewg4/cU6bmhgIqASVEJRrvX+vZ62Dto7/Xffj29/f6ie9x/8eoEGb7m0X5cUM6E1FBxOGYZpQtL1wC2cTammxv4AcZWzlzP5qy5gadTEuDB4Kx1+LJ7lHB//HTcbve+DE8vjn68+/mXuS1QYFGhEwh7fqGnUxJucyL05++DD72Dzv4/AL6O0DZeHBjPFjriPn3+/1Pbi1PbM2Tu7S2EG4+whghcr66ER90a9amcPacqXPHg0RU08Aaa+no6FCZknZUJ0n7IYCVrulnhQsSjR9BAFyGJoJGtm7XxTPJ0HDlahDLahJOgXk3LgkV9G8VmwQNEPlVVFrDRWzXXgnHliNCFiExubdzRuOhxV5vw3JIyVjlubKDv80AX6prEsakwoFVGJHV8L/WsXAq0T8bDc9naHE+VxLIvfTa+tOwobdTuyHnll5oIPxnKsDEZWFMLe3onPmAifKoyvsXADWGZP//l09OIoHM+ndxbqS0u2G70xVy9AJIvpnVSivQ1ociSuWqZpvULDQCFeg==</t>
         </r>
@@ -48,9 +67,6 @@
   </si>
   <si>
     <t>房地产开发投资:累计同比</t>
-  </si>
-  <si>
-    <t>商品房销售面积:累计同比</t>
   </si>
   <si>
     <t>房屋新开工面积:累计同比</t>
@@ -112,20 +128,20 @@
   <si>
     <t>更新时间</t>
   </si>
+  <si>
+    <t>商品房销售面积:累计同比</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,360 +154,39 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -499,313 +194,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1088,34 +498,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:H335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B312" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="M302" sqref="M302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="9.54545454545454"/>
+    <col min="2" max="2" width="15" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="9.53125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="str">
-        <f>HX_IFIND_EDB(0)</f>
-        <v>同花顺iFinD</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="e">
+        <f ca="1">HX_IFIND_EDB(0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1135,129 +546,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>24</v>
       </c>
       <c r="B9">
         <v>20240914</v>
@@ -1275,7 +686,7 @@
         <v>20240914</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>34758</v>
       </c>
@@ -1287,7 +698,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>34789</v>
       </c>
@@ -1299,7 +710,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>34819</v>
       </c>
@@ -1311,7 +722,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>34850</v>
       </c>
@@ -1323,7 +734,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>34880</v>
       </c>
@@ -1335,7 +746,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>34911</v>
       </c>
@@ -1347,7 +758,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>34942</v>
       </c>
@@ -1359,7 +770,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>34972</v>
       </c>
@@ -1371,7 +782,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>35003</v>
       </c>
@@ -1383,7 +794,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>35033</v>
       </c>
@@ -1395,7 +806,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>35064</v>
       </c>
@@ -1407,7 +818,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>35124</v>
       </c>
@@ -1419,7 +830,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>35155</v>
       </c>
@@ -1431,19 +842,19 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>35185</v>
       </c>
       <c r="B23" s="3">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>35216</v>
       </c>
@@ -1455,7 +866,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>35246</v>
       </c>
@@ -1467,7 +878,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>35277</v>
       </c>
@@ -1479,7 +890,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>35308</v>
       </c>
@@ -1491,7 +902,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>35338</v>
       </c>
@@ -1503,7 +914,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>35369</v>
       </c>
@@ -1515,19 +926,19 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>35399</v>
       </c>
       <c r="B30" s="3">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>35430</v>
       </c>
@@ -1539,7 +950,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>35489</v>
       </c>
@@ -1551,19 +962,19 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>35520</v>
       </c>
       <c r="B33" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>35550</v>
       </c>
@@ -1575,7 +986,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35581</v>
       </c>
@@ -1587,7 +998,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35611</v>
       </c>
@@ -1599,7 +1010,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35642</v>
       </c>
@@ -1611,7 +1022,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>35673</v>
       </c>
@@ -1623,7 +1034,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>35703</v>
       </c>
@@ -1635,7 +1046,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>35734</v>
       </c>
@@ -1647,7 +1058,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>35764</v>
       </c>
@@ -1659,7 +1070,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>35795</v>
       </c>
@@ -1671,7 +1082,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>35854</v>
       </c>
@@ -1683,19 +1094,19 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>35885</v>
       </c>
       <c r="B44" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>35915</v>
       </c>
@@ -1707,7 +1118,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>35946</v>
       </c>
@@ -1719,7 +1130,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>35976</v>
       </c>
@@ -1731,7 +1142,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>36007</v>
       </c>
@@ -1749,12 +1160,12 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>36038</v>
       </c>
       <c r="B49" s="3">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C49" s="3">
         <v>52</v>
@@ -1767,12 +1178,12 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>36068</v>
       </c>
       <c r="B50" s="3">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C50" s="3">
         <v>51.7</v>
@@ -1785,12 +1196,12 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>36099</v>
       </c>
       <c r="B51" s="3">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C51" s="3">
         <v>50.8</v>
@@ -1800,10 +1211,10 @@
         <v>14.2</v>
       </c>
       <c r="F51" s="3">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>36129</v>
       </c>
@@ -1818,10 +1229,10 @@
         <v>13.9</v>
       </c>
       <c r="F52" s="3">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>36160</v>
       </c>
@@ -1829,7 +1240,7 @@
         <v>12.6</v>
       </c>
       <c r="C53" s="3">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3">
@@ -1839,7 +1250,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>36219</v>
       </c>
@@ -1847,7 +1258,7 @@
         <v>29</v>
       </c>
       <c r="C54" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3">
@@ -1857,12 +1268,12 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>36250</v>
       </c>
       <c r="B55" s="3">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C55" s="3">
         <v>19.7</v>
@@ -1875,7 +1286,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>36280</v>
       </c>
@@ -1883,7 +1294,7 @@
         <v>19.5</v>
       </c>
       <c r="C56" s="3">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3">
@@ -1893,7 +1304,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>36311</v>
       </c>
@@ -1908,10 +1319,10 @@
         <v>22.3</v>
       </c>
       <c r="F57" s="3">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>36341</v>
       </c>
@@ -1929,7 +1340,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>36372</v>
       </c>
@@ -1941,13 +1352,13 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F59" s="3">
         <v>24.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>36403</v>
       </c>
@@ -1965,7 +1376,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>36433</v>
       </c>
@@ -1983,12 +1394,12 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>36464</v>
       </c>
       <c r="B62" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C62" s="3">
         <v>11.1</v>
@@ -2001,12 +1412,12 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>36494</v>
       </c>
       <c r="B63" s="3">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C63" s="3">
         <v>14.3</v>
@@ -2019,7 +1430,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>36525</v>
       </c>
@@ -2037,7 +1448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>36585</v>
       </c>
@@ -2055,15 +1466,15 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>36616</v>
       </c>
       <c r="B66" s="3">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C66" s="3">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3">
@@ -2073,7 +1484,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>36646</v>
       </c>
@@ -2081,7 +1492,7 @@
         <v>20.8</v>
       </c>
       <c r="C67" s="3">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3">
@@ -2091,7 +1502,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>36677</v>
       </c>
@@ -2099,7 +1510,7 @@
         <v>20.8</v>
       </c>
       <c r="C68" s="3">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3">
@@ -2109,7 +1520,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>36707</v>
       </c>
@@ -2117,7 +1528,7 @@
         <v>22.4</v>
       </c>
       <c r="C69" s="3">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3">
@@ -2127,7 +1538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>36738</v>
       </c>
@@ -2142,10 +1553,10 @@
         <v>11.6</v>
       </c>
       <c r="F70" s="3">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>36769</v>
       </c>
@@ -2163,7 +1574,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>36799</v>
       </c>
@@ -2181,7 +1592,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>36830</v>
       </c>
@@ -2199,7 +1610,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>36860</v>
       </c>
@@ -2207,17 +1618,17 @@
         <v>24.1</v>
       </c>
       <c r="C74" s="3">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3">
         <v>14.2</v>
       </c>
       <c r="F74" s="3">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>36891</v>
       </c>
@@ -2232,10 +1643,10 @@
         <v>15.3</v>
       </c>
       <c r="F75" s="3">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>36950</v>
       </c>
@@ -2255,7 +1666,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>36981</v>
       </c>
@@ -2275,7 +1686,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>37011</v>
       </c>
@@ -2295,7 +1706,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>37042</v>
       </c>
@@ -2315,7 +1726,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>37072</v>
       </c>
@@ -2326,7 +1737,7 @@
         <v>25.9</v>
       </c>
       <c r="D80" s="3">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="E80" s="3">
         <v>21.2</v>
@@ -2335,7 +1746,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>37103</v>
       </c>
@@ -2355,7 +1766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>37134</v>
       </c>
@@ -2375,7 +1786,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>37164</v>
       </c>
@@ -2386,16 +1797,16 @@
         <v>26.6</v>
       </c>
       <c r="D83" s="3">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E83" s="3">
         <v>22.8</v>
       </c>
       <c r="F83" s="3">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>37195</v>
       </c>
@@ -2415,7 +1826,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>37225</v>
       </c>
@@ -2432,10 +1843,10 @@
         <v>21.6</v>
       </c>
       <c r="F85" s="3">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>37256</v>
       </c>
@@ -2452,10 +1863,10 @@
         <v>21.5</v>
       </c>
       <c r="F86" s="3">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>37315</v>
       </c>
@@ -2475,12 +1886,12 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>37346</v>
       </c>
       <c r="B88" s="3">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C88" s="3">
         <v>17.7</v>
@@ -2495,12 +1906,12 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>37376</v>
       </c>
       <c r="B89" s="3">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C89" s="3">
         <v>20.7</v>
@@ -2515,12 +1926,12 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>37407</v>
       </c>
       <c r="B90" s="3">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C90" s="3">
         <v>20.3</v>
@@ -2535,7 +1946,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>37437</v>
       </c>
@@ -2552,10 +1963,10 @@
         <v>22.2</v>
       </c>
       <c r="F91" s="3">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>37468</v>
       </c>
@@ -2575,7 +1986,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>37499</v>
       </c>
@@ -2595,7 +2006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>37529</v>
       </c>
@@ -2615,7 +2026,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>37560</v>
       </c>
@@ -2626,7 +2037,7 @@
         <v>27.6</v>
       </c>
       <c r="D95" s="3">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="E95" s="3">
         <v>22.5</v>
@@ -2635,7 +2046,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>37590</v>
       </c>
@@ -2646,7 +2057,7 @@
         <v>29.8</v>
       </c>
       <c r="D96" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E96" s="3">
         <v>22.6</v>
@@ -2655,7 +2066,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>37621</v>
       </c>
@@ -2666,16 +2077,16 @@
         <v>20.2</v>
       </c>
       <c r="D97" s="3">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E97" s="3">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F97" s="3">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>37680</v>
       </c>
@@ -2683,7 +2094,7 @@
         <v>37</v>
       </c>
       <c r="C98" s="3">
-        <v>68.9</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D98" s="3">
         <v>49.7</v>
@@ -2695,7 +2106,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>37711</v>
       </c>
@@ -2715,7 +2126,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>37741</v>
       </c>
@@ -2735,12 +2146,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>37772</v>
       </c>
       <c r="B101" s="3">
-        <v>32.87</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="C101" s="3">
         <v>37.5</v>
@@ -2755,12 +2166,12 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>37802</v>
       </c>
       <c r="B102" s="3">
-        <v>33.98</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="C102" s="3">
         <v>37.4</v>
@@ -2775,7 +2186,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>37833</v>
       </c>
@@ -2792,10 +2203,10 @@
         <v>27.9</v>
       </c>
       <c r="F103" s="3">
-        <v>37.7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>37864</v>
       </c>
@@ -2812,15 +2223,15 @@
         <v>27.7</v>
       </c>
       <c r="F104" s="3">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>37894</v>
       </c>
       <c r="B105" s="3">
-        <v>32.84</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="C105" s="3">
         <v>35.9</v>
@@ -2835,7 +2246,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>37925</v>
       </c>
@@ -2852,10 +2263,10 @@
         <v>27.6</v>
       </c>
       <c r="F106" s="3">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>37955</v>
       </c>
@@ -2875,7 +2286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>37986</v>
       </c>
@@ -2895,7 +2306,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>38046</v>
       </c>
@@ -2906,7 +2317,7 @@
         <v>42.7</v>
       </c>
       <c r="D109" s="3">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E109" s="3">
         <v>44.6</v>
@@ -2915,7 +2326,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>38077</v>
       </c>
@@ -2929,13 +2340,13 @@
         <v>22.5</v>
       </c>
       <c r="E110" s="3">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F110" s="3">
         <v>21.3</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>38107</v>
       </c>
@@ -2943,7 +2354,7 @@
         <v>34.6</v>
       </c>
       <c r="C111" s="3">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D111" s="3">
         <v>19.3</v>
@@ -2955,7 +2366,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>38138</v>
       </c>
@@ -2975,7 +2386,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>38168</v>
       </c>
@@ -2995,7 +2406,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>38199</v>
       </c>
@@ -3015,7 +2426,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>38230</v>
       </c>
@@ -3035,7 +2446,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>38260</v>
       </c>
@@ -3055,7 +2466,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>38291</v>
       </c>
@@ -3072,10 +2483,10 @@
         <v>22.3</v>
       </c>
       <c r="F117" s="3">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>38321</v>
       </c>
@@ -3095,7 +2506,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>38352</v>
       </c>
@@ -3115,7 +2526,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>38411</v>
       </c>
@@ -3135,7 +2546,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>38442</v>
       </c>
@@ -3146,7 +2557,7 @@
         <v>20.3</v>
       </c>
       <c r="D121" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E121" s="3">
         <v>19.2</v>
@@ -3155,7 +2566,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>38472</v>
       </c>
@@ -3175,7 +2586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>38503</v>
       </c>
@@ -3195,7 +2606,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>38533</v>
       </c>
@@ -3215,7 +2626,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>38564</v>
       </c>
@@ -3235,7 +2646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>38595</v>
       </c>
@@ -3249,13 +2660,13 @@
         <v>13</v>
       </c>
       <c r="E126" s="3">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F126" s="3">
         <v>24.7</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>38625</v>
       </c>
@@ -3269,13 +2680,13 @@
         <v>13</v>
       </c>
       <c r="E127" s="3">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F127" s="3">
         <v>19.7</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>38656</v>
       </c>
@@ -3292,10 +2703,10 @@
         <v>18.5</v>
       </c>
       <c r="F128" s="3">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>38686</v>
       </c>
@@ -3312,10 +2723,10 @@
         <v>18.5</v>
       </c>
       <c r="F129" s="3">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>38717</v>
       </c>
@@ -3329,13 +2740,13 @@
         <v>10.6</v>
       </c>
       <c r="E130" s="3">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F130" s="3">
         <v>14.9</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>38776</v>
       </c>
@@ -3355,7 +2766,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>38807</v>
       </c>
@@ -3363,7 +2774,7 @@
         <v>20.2</v>
       </c>
       <c r="C132" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D132" s="3">
         <v>22.1</v>
@@ -3375,7 +2786,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>38837</v>
       </c>
@@ -3395,7 +2806,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>38868</v>
       </c>
@@ -3415,7 +2826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>38898</v>
       </c>
@@ -3432,10 +2843,10 @@
         <v>20.9</v>
       </c>
       <c r="F135" s="3">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>38929</v>
       </c>
@@ -3446,7 +2857,7 @@
         <v>12.6</v>
       </c>
       <c r="D136" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E136" s="3">
         <v>19.2</v>
@@ -3455,7 +2866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>38960</v>
       </c>
@@ -3475,7 +2886,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>38990</v>
       </c>
@@ -3489,13 +2900,13 @@
         <v>18</v>
       </c>
       <c r="E138" s="3">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F138" s="3">
-        <v>8.7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>39021</v>
       </c>
@@ -3506,7 +2917,7 @@
         <v>10.9</v>
       </c>
       <c r="D139" s="3">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E139" s="3">
         <v>18.8</v>
@@ -3515,7 +2926,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>39051</v>
       </c>
@@ -3529,13 +2940,13 @@
         <v>18</v>
       </c>
       <c r="E140" s="3">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F140" s="3">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>39082</v>
       </c>
@@ -3549,13 +2960,13 @@
         <v>15.1</v>
       </c>
       <c r="E141" s="3">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F141" s="3">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>39141</v>
       </c>
@@ -3569,13 +2980,13 @@
         <v>3.6</v>
       </c>
       <c r="E142" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F142" s="3">
-        <v>-1.1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>39172</v>
       </c>
@@ -3595,7 +3006,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>39202</v>
       </c>
@@ -3603,7 +3014,7 @@
         <v>27.4</v>
       </c>
       <c r="C144" s="3">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D144" s="3">
         <v>14.7</v>
@@ -3615,7 +3026,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>39233</v>
       </c>
@@ -3623,10 +3034,10 @@
         <v>27.5</v>
       </c>
       <c r="C145" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D145" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E145" s="3">
         <v>21.9</v>
@@ -3635,7 +3046,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>39263</v>
       </c>
@@ -3646,7 +3057,7 @@
         <v>21.5</v>
       </c>
       <c r="D146" s="3">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E146" s="3">
         <v>21.9</v>
@@ -3655,7 +3066,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>39294</v>
       </c>
@@ -3675,7 +3086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>39325</v>
       </c>
@@ -3695,7 +3106,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>39355</v>
       </c>
@@ -3715,7 +3126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>39386</v>
       </c>
@@ -3735,7 +3146,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>39416</v>
       </c>
@@ -3755,7 +3166,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>39447</v>
       </c>
@@ -3766,7 +3177,7 @@
         <v>23.2</v>
       </c>
       <c r="D152" s="3">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E152" s="3">
         <v>21.1</v>
@@ -3775,7 +3186,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>39507</v>
       </c>
@@ -3795,12 +3206,12 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>39538</v>
       </c>
       <c r="B154" s="3">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="C154" s="3">
         <v>-1.4</v>
@@ -3815,7 +3226,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>39568</v>
       </c>
@@ -3823,10 +3234,10 @@
         <v>32.1</v>
       </c>
       <c r="C155" s="3">
-        <v>-4.9</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D155" s="3">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E155" s="3">
         <v>25.4</v>
@@ -3835,7 +3246,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>39599</v>
       </c>
@@ -3855,7 +3266,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>39629</v>
       </c>
@@ -3866,7 +3277,7 @@
         <v>-7.2</v>
       </c>
       <c r="D157" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E157" s="3">
         <v>24.1</v>
@@ -3875,7 +3286,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>39660</v>
       </c>
@@ -3895,7 +3306,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>39691</v>
       </c>
@@ -3915,7 +3326,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>39721</v>
       </c>
@@ -3926,16 +3337,16 @@
         <v>-14.9</v>
       </c>
       <c r="D160" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E160" s="3">
         <v>20.3</v>
       </c>
       <c r="F160" s="3">
-        <v>9.7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>39752</v>
       </c>
@@ -3955,7 +3366,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>39782</v>
       </c>
@@ -3975,7 +3386,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>39813</v>
       </c>
@@ -3986,7 +3397,7 @@
         <v>-19.7</v>
       </c>
       <c r="D163" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E163" s="3">
         <v>16</v>
@@ -3995,7 +3406,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>39872</v>
       </c>
@@ -4015,15 +3426,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>39903</v>
       </c>
       <c r="B165" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C165" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D165" s="3">
         <v>-16.2</v>
@@ -4035,12 +3446,12 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>39933</v>
       </c>
       <c r="B166" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C166" s="3">
         <v>17.5</v>
@@ -4055,7 +3466,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>39964</v>
       </c>
@@ -4075,12 +3486,12 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>39994</v>
       </c>
       <c r="B168" s="3">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C168" s="3">
         <v>31.7</v>
@@ -4095,7 +3506,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>40025</v>
       </c>
@@ -4115,7 +3526,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>40056</v>
       </c>
@@ -4135,7 +3546,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>40086</v>
       </c>
@@ -4155,12 +3566,12 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>40117</v>
       </c>
       <c r="B172" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C172" s="3">
         <v>48.4</v>
@@ -4169,13 +3580,13 @@
         <v>3.3</v>
       </c>
       <c r="E172" s="3">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F172" s="3">
         <v>22.8</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>40147</v>
       </c>
@@ -4195,12 +3606,12 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>40178</v>
       </c>
       <c r="B174" s="3">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C174" s="3">
         <v>42.1</v>
@@ -4215,7 +3626,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>40237</v>
       </c>
@@ -4223,7 +3634,7 @@
         <v>31.1</v>
       </c>
       <c r="C175" s="3">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="D175" s="3">
         <v>37.5</v>
@@ -4232,10 +3643,10 @@
         <v>29.3</v>
       </c>
       <c r="F175" s="3">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>40268</v>
       </c>
@@ -4243,7 +3654,7 @@
         <v>35.1</v>
       </c>
       <c r="C176" s="3">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D176" s="3">
         <v>60.8</v>
@@ -4255,18 +3666,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>40298</v>
       </c>
       <c r="B177" s="3">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C177" s="3">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="D177" s="3">
-        <v>64.1</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E177" s="3">
         <v>31.7</v>
@@ -4275,27 +3686,27 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>40329</v>
       </c>
       <c r="B178" s="3">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="C178" s="3">
         <v>22.5</v>
       </c>
       <c r="D178" s="3">
-        <v>72.4</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="E178" s="3">
         <v>30.5</v>
       </c>
       <c r="F178" s="3">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>40359</v>
       </c>
@@ -4306,7 +3717,7 @@
         <v>15.4</v>
       </c>
       <c r="D179" s="3">
-        <v>67.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E179" s="3">
         <v>28.7</v>
@@ -4315,15 +3726,15 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>40390</v>
       </c>
       <c r="B180" s="3">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C180" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D180" s="3">
         <v>67.7</v>
@@ -4335,18 +3746,18 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>40421</v>
       </c>
       <c r="B181" s="3">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="C181" s="3">
         <v>6.7</v>
       </c>
       <c r="D181" s="3">
-        <v>66.1</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="E181" s="3">
         <v>29.1</v>
@@ -4355,7 +3766,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>40451</v>
       </c>
@@ -4363,7 +3774,7 @@
         <v>36.4</v>
       </c>
       <c r="C182" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D182" s="3">
         <v>63.1</v>
@@ -4375,7 +3786,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>40482</v>
       </c>
@@ -4395,7 +3806,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>40512</v>
       </c>
@@ -4403,7 +3814,7 @@
         <v>36.5</v>
       </c>
       <c r="C184" s="3">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D184" s="3">
         <v>48.7</v>
@@ -4415,18 +3826,18 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>40543</v>
       </c>
       <c r="B185" s="3">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C185" s="3">
         <v>10.1</v>
       </c>
       <c r="D185" s="3">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E185" s="3">
         <v>26.6</v>
@@ -4435,12 +3846,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>40602</v>
       </c>
       <c r="B186" s="3">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="C186" s="3">
         <v>13.8</v>
@@ -4455,7 +3866,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>40633</v>
       </c>
@@ -4469,18 +3880,18 @@
         <v>23.4</v>
       </c>
       <c r="E187" s="3">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="F187" s="3">
         <v>15.4</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>40663</v>
       </c>
       <c r="B188" s="3">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C188" s="3">
         <v>6.3</v>
@@ -4489,13 +3900,13 @@
         <v>24.4</v>
       </c>
       <c r="E188" s="3">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F188" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>40694</v>
       </c>
@@ -4515,7 +3926,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>40724</v>
       </c>
@@ -4535,7 +3946,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>40755</v>
       </c>
@@ -4555,12 +3966,12 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>40786</v>
       </c>
       <c r="B192" s="3">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="C192" s="3">
         <v>13.6</v>
@@ -4575,7 +3986,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>40816</v>
       </c>
@@ -4595,7 +4006,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>40847</v>
       </c>
@@ -4615,7 +4026,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>40877</v>
       </c>
@@ -4635,7 +4046,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>40908</v>
       </c>
@@ -4643,7 +4054,7 @@
         <v>27.9</v>
       </c>
       <c r="C196" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D196" s="3">
         <v>16.2</v>
@@ -4655,7 +4066,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>40968</v>
       </c>
@@ -4666,7 +4077,7 @@
         <v>-14</v>
       </c>
       <c r="D197" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E197" s="3">
         <v>35.5</v>
@@ -4675,7 +4086,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>40999</v>
       </c>
@@ -4692,10 +4103,10 @@
         <v>25</v>
       </c>
       <c r="F198" s="3">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>41029</v>
       </c>
@@ -4715,7 +4126,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>41060</v>
       </c>
@@ -4729,18 +4140,18 @@
         <v>-4.3</v>
       </c>
       <c r="E200" s="3">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F200" s="3">
         <v>26.3</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>41090</v>
       </c>
       <c r="B201" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C201" s="3">
         <v>-10</v>
@@ -4755,7 +4166,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>41121</v>
       </c>
@@ -4766,7 +4177,7 @@
         <v>-6.6</v>
       </c>
       <c r="D202" s="3">
-        <v>-9.8</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="E202" s="3">
         <v>15.3</v>
@@ -4775,7 +4186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>41152</v>
       </c>
@@ -4783,7 +4194,7 @@
         <v>15.6</v>
       </c>
       <c r="C203" s="3">
-        <v>-4.1</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D203" s="3">
         <v>-6.8</v>
@@ -4795,7 +4206,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>41182</v>
       </c>
@@ -4812,10 +4223,10 @@
         <v>14</v>
       </c>
       <c r="F204" s="3">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>41213</v>
       </c>
@@ -4823,7 +4234,7 @@
         <v>15.4</v>
       </c>
       <c r="C205" s="3">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D205" s="3">
         <v>-8.5</v>
@@ -4835,7 +4246,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>41243</v>
       </c>
@@ -4855,7 +4266,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>41274</v>
       </c>
@@ -4875,7 +4286,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>41333</v>
       </c>
@@ -4895,7 +4306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>41364</v>
       </c>
@@ -4915,7 +4326,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>41394</v>
       </c>
@@ -4935,7 +4346,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>41425</v>
       </c>
@@ -4955,7 +4366,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>41455</v>
       </c>
@@ -4975,7 +4386,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>41486</v>
       </c>
@@ -4995,7 +4406,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>41517</v>
       </c>
@@ -5012,10 +4423,10 @@
         <v>14.4</v>
       </c>
       <c r="F214" s="3">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>41547</v>
       </c>
@@ -5035,7 +4446,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>41578</v>
       </c>
@@ -5055,7 +4466,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>41608</v>
       </c>
@@ -5069,13 +4480,13 @@
         <v>11.5</v>
       </c>
       <c r="E217" s="3">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F217" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>41639</v>
       </c>
@@ -5089,13 +4500,13 @@
         <v>13.5</v>
       </c>
       <c r="E218" s="3">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F218" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>41698</v>
       </c>
@@ -5112,10 +4523,10 @@
         <v>16.3</v>
       </c>
       <c r="F219" s="3">
-        <v>-8.2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>41729</v>
       </c>
@@ -5132,15 +4543,15 @@
         <v>14.2</v>
       </c>
       <c r="F220" s="3">
-        <v>-4.9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>41759</v>
       </c>
       <c r="B221" s="3">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C221" s="3">
         <v>-6.9</v>
@@ -5155,7 +4566,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>41790</v>
       </c>
@@ -5166,7 +4577,7 @@
         <v>-7.8</v>
       </c>
       <c r="D222" s="3">
-        <v>-18.6</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="E222" s="3">
         <v>12</v>
@@ -5175,7 +4586,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>41820</v>
       </c>
@@ -5186,7 +4597,7 @@
         <v>-6</v>
       </c>
       <c r="D223" s="3">
-        <v>-16.4</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="E223" s="3">
         <v>11.3</v>
@@ -5195,7 +4606,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>41851</v>
       </c>
@@ -5215,7 +4626,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>41882</v>
       </c>
@@ -5223,7 +4634,7 @@
         <v>13.2</v>
       </c>
       <c r="C225" s="3">
-        <v>-8.3</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="D225" s="3">
         <v>-10.5</v>
@@ -5235,7 +4646,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>41912</v>
       </c>
@@ -5246,7 +4657,7 @@
         <v>-8.6</v>
       </c>
       <c r="D226" s="3">
-        <v>-9.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="E226" s="3">
         <v>11.5</v>
@@ -5255,7 +4666,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>41943</v>
       </c>
@@ -5275,7 +4686,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>41973</v>
       </c>
@@ -5283,7 +4694,7 @@
         <v>11.9</v>
       </c>
       <c r="C228" s="3">
-        <v>-8.2</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="D228" s="3">
         <v>-9</v>
@@ -5295,7 +4706,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>42004</v>
       </c>
@@ -5309,13 +4720,13 @@
         <v>-10.7</v>
       </c>
       <c r="E229" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F229" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>42063</v>
       </c>
@@ -5335,7 +4746,7 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>42094</v>
       </c>
@@ -5343,19 +4754,19 @@
         <v>8.5</v>
       </c>
       <c r="C231" s="3">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="D231" s="3">
-        <v>-18.4</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="E231" s="3">
         <v>6.8</v>
       </c>
       <c r="F231" s="3">
-        <v>-8.2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>42124</v>
       </c>
@@ -5375,12 +4786,12 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>42155</v>
       </c>
       <c r="B233" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C233" s="3">
         <v>-0.2</v>
@@ -5395,12 +4806,12 @@
         <v>-13.3</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>42185</v>
       </c>
       <c r="B234" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C234" s="3">
         <v>3.9</v>
@@ -5415,7 +4826,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>42216</v>
       </c>
@@ -5435,7 +4846,7 @@
         <v>-13.1</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>42247</v>
       </c>
@@ -5455,7 +4866,7 @@
         <v>-14.6</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>42277</v>
       </c>
@@ -5472,10 +4883,10 @@
         <v>3</v>
       </c>
       <c r="F237" s="3">
-        <v>-9.8</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+        <v>-9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>42308</v>
       </c>
@@ -5489,13 +4900,13 @@
         <v>-13.9</v>
       </c>
       <c r="E238" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F238" s="3">
         <v>-4.2</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>42338</v>
       </c>
@@ -5515,7 +4926,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>42369</v>
       </c>
@@ -5535,7 +4946,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>42429</v>
       </c>
@@ -5555,7 +4966,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>42460</v>
       </c>
@@ -5575,7 +4986,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>42490</v>
       </c>
@@ -5592,10 +5003,10 @@
         <v>5.8</v>
       </c>
       <c r="F243" s="3">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>42521</v>
       </c>
@@ -5603,7 +5014,7 @@
         <v>7</v>
       </c>
       <c r="C244" s="3">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D244" s="3">
         <v>18.3</v>
@@ -5612,10 +5023,10 @@
         <v>5.6</v>
       </c>
       <c r="F244" s="3">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>42551</v>
       </c>
@@ -5635,7 +5046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>42582</v>
       </c>
@@ -5655,7 +5066,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>42613</v>
       </c>
@@ -5669,13 +5080,13 @@
         <v>12.2</v>
       </c>
       <c r="E247" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F247" s="3">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>42643</v>
       </c>
@@ -5695,7 +5106,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>42674</v>
       </c>
@@ -5715,7 +5126,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>42704</v>
       </c>
@@ -5735,7 +5146,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>42735</v>
       </c>
@@ -5755,7 +5166,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>42794</v>
       </c>
@@ -5775,7 +5186,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>42825</v>
       </c>
@@ -5795,12 +5206,12 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>42855</v>
       </c>
       <c r="B254" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C254" s="3">
         <v>15.7</v>
@@ -5815,12 +5226,12 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>42886</v>
       </c>
       <c r="B255" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C255" s="3">
         <v>14.3</v>
@@ -5835,7 +5246,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>42916</v>
       </c>
@@ -5843,7 +5254,7 @@
         <v>8.5</v>
       </c>
       <c r="C256" s="3">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D256" s="3">
         <v>10.6</v>
@@ -5855,7 +5266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>42947</v>
       </c>
@@ -5875,7 +5286,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>42978</v>
       </c>
@@ -5895,7 +5306,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>43008</v>
       </c>
@@ -5915,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>43039</v>
       </c>
@@ -5923,7 +5334,7 @@
         <v>7.8</v>
       </c>
       <c r="C260" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D260" s="3">
         <v>5.6</v>
@@ -5935,7 +5346,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>43069</v>
       </c>
@@ -5955,7 +5366,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>43100</v>
       </c>
@@ -5972,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="F262" s="3">
-        <v>-4.4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>43159</v>
       </c>
@@ -5983,7 +5394,7 @@
         <v>9.9</v>
       </c>
       <c r="C263" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D263" s="3">
         <v>2.9</v>
@@ -5995,7 +5406,7 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>43190</v>
       </c>
@@ -6006,7 +5417,7 @@
         <v>3.6</v>
       </c>
       <c r="D264" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E264" s="3">
         <v>1.5</v>
@@ -6015,7 +5426,7 @@
         <v>-10.1</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>43220</v>
       </c>
@@ -6035,12 +5446,12 @@
         <v>-10.7</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>43251</v>
       </c>
       <c r="B266" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C266" s="3">
         <v>2.9</v>
@@ -6055,12 +5466,12 @@
         <v>-10.1</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>43281</v>
       </c>
       <c r="B267" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C267" s="3">
         <v>3.3</v>
@@ -6075,12 +5486,12 @@
         <v>-10.6</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>43312</v>
       </c>
       <c r="B268" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C268" s="3">
         <v>4.2</v>
@@ -6095,7 +5506,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>43343</v>
       </c>
@@ -6115,7 +5526,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>43373</v>
       </c>
@@ -6126,7 +5537,7 @@
         <v>2.9</v>
       </c>
       <c r="D270" s="3">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E270" s="3">
         <v>3.9</v>
@@ -6135,15 +5546,15 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>43404</v>
       </c>
       <c r="B271" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C271" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D271" s="3">
         <v>16.3</v>
@@ -6155,12 +5566,12 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>43434</v>
       </c>
       <c r="B272" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C272" s="3">
         <v>1.4</v>
@@ -6175,7 +5586,7 @@
         <v>-12.3</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>43465</v>
       </c>
@@ -6195,7 +5606,7 @@
         <v>-7.8</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>43524</v>
       </c>
@@ -6215,7 +5626,7 @@
         <v>-11.9</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>43555</v>
       </c>
@@ -6229,13 +5640,13 @@
         <v>11.9</v>
       </c>
       <c r="E275" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F275" s="3">
         <v>-10.8</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>43585</v>
       </c>
@@ -6249,13 +5660,13 @@
         <v>13.1</v>
       </c>
       <c r="E276" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F276" s="3">
         <v>-10.3</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>43616</v>
       </c>
@@ -6269,13 +5680,13 @@
         <v>10.5</v>
       </c>
       <c r="E277" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F277" s="3">
         <v>-12.4</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>43646</v>
       </c>
@@ -6289,13 +5700,13 @@
         <v>10.1</v>
       </c>
       <c r="E278" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F278" s="3">
         <v>-12.7</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>43677</v>
       </c>
@@ -6315,7 +5726,7 @@
         <v>-11.3</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>43708</v>
       </c>
@@ -6329,13 +5740,13 @@
         <v>8.9</v>
       </c>
       <c r="E280" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F280" s="3">
         <v>-10</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>43738</v>
       </c>
@@ -6349,13 +5760,13 @@
         <v>8.6</v>
       </c>
       <c r="E281" s="3">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F281" s="3">
         <v>-8.6</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>43769</v>
       </c>
@@ -6375,12 +5786,12 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>43799</v>
       </c>
       <c r="B283" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C283" s="3">
         <v>0.2</v>
@@ -6389,13 +5800,13 @@
         <v>8.6</v>
       </c>
       <c r="E283" s="3">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F283" s="3">
         <v>-4.5</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>43830</v>
       </c>
@@ -6409,13 +5820,13 @@
         <v>8.5</v>
       </c>
       <c r="E284" s="3">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F284" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>43890</v>
       </c>
@@ -6435,7 +5846,7 @@
         <v>-22.9</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>43921</v>
       </c>
@@ -6455,7 +5866,7 @@
         <v>-15.8</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>43951</v>
       </c>
@@ -6466,7 +5877,7 @@
         <v>-19.3</v>
       </c>
       <c r="D287" s="3">
-        <v>-18.4</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="E287" s="3">
         <v>2.5</v>
@@ -6475,7 +5886,7 @@
         <v>-14.5</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>43982</v>
       </c>
@@ -6489,13 +5900,13 @@
         <v>-12.8</v>
       </c>
       <c r="E288" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F288" s="3">
         <v>-11.3</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>44012</v>
       </c>
@@ -6515,7 +5926,7 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>44043</v>
       </c>
@@ -6535,12 +5946,12 @@
         <v>-10.9</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>44074</v>
       </c>
       <c r="B291" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C291" s="3">
         <v>-3.3</v>
@@ -6555,7 +5966,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>44104</v>
       </c>
@@ -6575,7 +5986,7 @@
         <v>-11.6</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>44135</v>
       </c>
@@ -6592,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="F293" s="3">
-        <v>-9.2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>44165</v>
       </c>
@@ -6615,7 +6026,7 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>44196</v>
       </c>
@@ -6632,15 +6043,15 @@
         <v>3.7</v>
       </c>
       <c r="F295" s="3">
-        <v>-4.9</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>44255</v>
       </c>
       <c r="B296" s="3">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="C296" s="3">
         <v>104.9</v>
@@ -6655,7 +6066,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>44286</v>
       </c>
@@ -6675,7 +6086,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>44316</v>
       </c>
@@ -6692,10 +6103,10 @@
         <v>10.5</v>
       </c>
       <c r="F298" s="3">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>44347</v>
       </c>
@@ -6703,7 +6114,7 @@
         <v>18.3</v>
       </c>
       <c r="C299" s="3">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D299" s="3">
         <v>6.9</v>
@@ -6712,10 +6123,10 @@
         <v>10.1</v>
       </c>
       <c r="F299" s="3">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>44377</v>
       </c>
@@ -6729,13 +6140,17 @@
         <v>3.8</v>
       </c>
       <c r="E300" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F300" s="3">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="H300" s="3">
+        <f>B301-B300</f>
+        <v>-2.3000000000000007</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>44408</v>
       </c>
@@ -6754,8 +6169,12 @@
       <c r="F301" s="3">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="H301" s="3">
+        <f t="shared" ref="H301:H334" si="0">B302-B301</f>
+        <v>-1.7999999999999989</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>44439</v>
       </c>
@@ -6774,13 +6193,17 @@
       <c r="F302" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="H302" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.0999999999999996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>44469</v>
       </c>
       <c r="B303" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C303" s="3">
         <v>11.3</v>
@@ -6794,8 +6217,12 @@
       <c r="F303" s="3">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="H303" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.6000000000000005</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>44500</v>
       </c>
@@ -6814,8 +6241,12 @@
       <c r="F304" s="3">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="H304" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>44530</v>
       </c>
@@ -6834,13 +6265,17 @@
       <c r="F305" s="3">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="H305" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>44561</v>
       </c>
       <c r="B306" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C306" s="3">
         <v>1.9</v>
@@ -6854,8 +6289,12 @@
       <c r="F306" s="3">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="H306" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>44620</v>
       </c>
@@ -6872,10 +6311,14 @@
         <v>1.8</v>
       </c>
       <c r="F307" s="3">
-        <v>-9.8</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H307" s="3">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>44651</v>
       </c>
@@ -6894,8 +6337,12 @@
       <c r="F308" s="3">
         <v>-11.5</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="H308" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>44681</v>
       </c>
@@ -6914,8 +6361,12 @@
       <c r="F309" s="3">
         <v>-11.9</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="H309" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>44712</v>
       </c>
@@ -6934,8 +6385,12 @@
       <c r="F310" s="3">
         <v>-15.3</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="H310" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>44742</v>
       </c>
@@ -6954,8 +6409,12 @@
       <c r="F311" s="3">
         <v>-21.5</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="H311" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>44773</v>
       </c>
@@ -6974,8 +6433,12 @@
       <c r="F312" s="3">
         <v>-23.3</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="H312" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>44804</v>
       </c>
@@ -6986,7 +6449,7 @@
         <v>-23</v>
       </c>
       <c r="D313" s="3">
-        <v>-37.2</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="E313" s="3">
         <v>-4.5</v>
@@ -6994,8 +6457,12 @@
       <c r="F313" s="3">
         <v>-21.1</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="H313" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>44834</v>
       </c>
@@ -7012,21 +6479,25 @@
         <v>-5.3</v>
       </c>
       <c r="F314" s="3">
-        <v>-19.9</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="H314" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.80000000000000071</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>44865</v>
       </c>
       <c r="B315" s="3">
-        <v>-8.8</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="C315" s="3">
         <v>-22.3</v>
       </c>
       <c r="D315" s="3">
-        <v>-37.8</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="E315" s="3">
         <v>-5.7</v>
@@ -7034,13 +6505,17 @@
       <c r="F315" s="3">
         <v>-18.7</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="H315" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>44895</v>
       </c>
       <c r="B316" s="3">
-        <v>-9.8</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="C316" s="3">
         <v>-23.3</v>
@@ -7054,8 +6529,12 @@
       <c r="F316" s="3">
         <v>-19</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="H316" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>44926</v>
       </c>
@@ -7074,8 +6553,12 @@
       <c r="F317" s="3">
         <v>-15</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="H317" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>44985</v>
       </c>
@@ -7089,13 +6572,17 @@
         <v>-9.4</v>
       </c>
       <c r="E318" s="3">
-        <v>-4.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="F318" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="H318" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>45016</v>
       </c>
@@ -7114,8 +6601,12 @@
       <c r="F319" s="3">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="H319" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>45046</v>
       </c>
@@ -7134,8 +6625,12 @@
       <c r="F320" s="3">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="H320" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>45077</v>
       </c>
@@ -7152,10 +6647,14 @@
         <v>-6.2</v>
       </c>
       <c r="F321" s="3">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H321" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>45107</v>
       </c>
@@ -7174,8 +6673,12 @@
       <c r="F322" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="H322" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>45138</v>
       </c>
@@ -7194,13 +6697,17 @@
       <c r="F323" s="3">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="H323" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>45169</v>
       </c>
       <c r="B324" s="3">
-        <v>-8.8</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="C324" s="3">
         <v>-7.1</v>
@@ -7214,8 +6721,12 @@
       <c r="F324" s="3">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="H324" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999893</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>45199</v>
       </c>
@@ -7234,13 +6745,17 @@
       <c r="F325" s="3">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="H325" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000107</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>45230</v>
       </c>
       <c r="B326" s="3">
-        <v>-9.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="C326" s="3">
         <v>-7.8</v>
@@ -7254,8 +6769,12 @@
       <c r="F326" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="H326" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>45260</v>
       </c>
@@ -7272,10 +6791,14 @@
         <v>-7.2</v>
       </c>
       <c r="F327" s="3">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H327" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>45291</v>
       </c>
@@ -7286,7 +6809,7 @@
         <v>-8.5</v>
       </c>
       <c r="D328" s="3">
-        <v>-20.4</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="E328" s="3">
         <v>-7.2</v>
@@ -7294,8 +6817,12 @@
       <c r="F328" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="H328" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>45351</v>
       </c>
@@ -7314,8 +6841,12 @@
       <c r="F329" s="3">
         <v>-20.2</v>
       </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="H329" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>45382</v>
       </c>
@@ -7323,7 +6854,7 @@
         <v>-9.5</v>
       </c>
       <c r="C330" s="3">
-        <v>-19.4</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="D330" s="3">
         <v>-27.8</v>
@@ -7334,13 +6865,17 @@
       <c r="F330" s="3">
         <v>-20.7</v>
       </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="H330" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>45412</v>
       </c>
       <c r="B331" s="3">
-        <v>-9.8</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="C331" s="3">
         <v>-20.2</v>
@@ -7352,10 +6887,14 @@
         <v>-10.8</v>
       </c>
       <c r="F331" s="3">
-        <v>-20.4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="H331" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999893</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>45443</v>
       </c>
@@ -7372,10 +6911,14 @@
         <v>-11.6</v>
       </c>
       <c r="F332" s="3">
-        <v>-20.1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="H332" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>45473</v>
       </c>
@@ -7394,16 +6937,20 @@
       <c r="F333" s="3">
         <v>-21.8</v>
       </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="H333" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>45504</v>
       </c>
       <c r="B334" s="3">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="C334" s="3">
-        <v>-18.6</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="D334" s="3">
         <v>-23.2</v>
@@ -7414,13 +6961,17 @@
       <c r="F334" s="3">
         <v>-21.8</v>
       </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="H334" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>45535</v>
       </c>
       <c r="B335" s="3">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="C335" s="3">
         <v>-18</v>
@@ -7434,10 +6985,12 @@
       <c r="F335" s="3">
         <v>-23.6</v>
       </c>
+      <c r="H335" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>